--- a/словарь_данных.xlsx
+++ b/словарь_данных.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
   <si>
     <t>Сущность</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Количество</t>
   </si>
   <si>
-    <t>Заказ-наряды</t>
-  </si>
-  <si>
     <t>Заявка на запчасти</t>
   </si>
   <si>
@@ -123,21 +120,9 @@
     <t>много заявок - 1 менеджер</t>
   </si>
   <si>
-    <t>ID заказ-наряд</t>
-  </si>
-  <si>
     <t>Список запчастей заявки</t>
   </si>
   <si>
-    <t>1 список запчастей заявки - 1 заявка</t>
-  </si>
-  <si>
-    <t>много заказ-нарядов - 1 список-запчастей заявки</t>
-  </si>
-  <si>
-    <t>1 список-запчастей заявки - много запчастей</t>
-  </si>
-  <si>
     <t>Заявки</t>
   </si>
   <si>
@@ -196,6 +181,57 @@
   </si>
   <si>
     <t>много закупок - 1 сотрудник склада</t>
+  </si>
+  <si>
+    <t>Список запчастей закупки</t>
+  </si>
+  <si>
+    <t>1 заявка - много строк списка запчастей заявки</t>
+  </si>
+  <si>
+    <t>ID строки списка запчастей заявки</t>
+  </si>
+  <si>
+    <t>ID строки списка запчастей закупки</t>
+  </si>
+  <si>
+    <t>1 закупка - много строк списка запчастей закупки</t>
+  </si>
+  <si>
+    <t>Закупки</t>
+  </si>
+  <si>
+    <t>Дата создания прогноза спроса</t>
+  </si>
+  <si>
+    <t>ID прогноза спроса</t>
+  </si>
+  <si>
+    <t>ID ответственного сотрудника</t>
+  </si>
+  <si>
+    <t>много прогнозов - 1 сотрудник склада</t>
+  </si>
+  <si>
+    <t>Список запчастей прогноза спроса</t>
+  </si>
+  <si>
+    <t>ID строки списка запчастей прогноза спроса</t>
+  </si>
+  <si>
+    <t>1 прогноз спроса - много строк списка запчастей прогноза спроса</t>
+  </si>
+  <si>
+    <t>1 запчасть - много строк списка запчастей прогноза спроса</t>
+  </si>
+  <si>
+    <t>Прогноз спроса</t>
+  </si>
+  <si>
+    <t>1 запчасть - много строк списка запчастей закупки</t>
+  </si>
+  <si>
+    <t>1 запчасть - много строк списка запчастей заявки</t>
   </si>
 </sst>
 </file>
@@ -494,18 +530,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -657,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>19</v>
@@ -669,7 +705,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>20</v>
@@ -713,7 +749,7 @@
         <v>26</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>7</v>
@@ -722,7 +758,7 @@
     <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -735,10 +771,10 @@
     </row>
     <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -746,19 +782,19 @@
     <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -766,7 +802,7 @@
     <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -827,10 +863,10 @@
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -838,7 +874,7 @@
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -849,7 +885,7 @@
         <v>22</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>4</v>
@@ -861,7 +897,7 @@
         <v>24</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>23</v>
@@ -875,28 +911,22 @@
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -905,7 +935,7 @@
         <v>13</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>9</v>
@@ -927,10 +957,10 @@
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -938,7 +968,7 @@
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -946,10 +976,10 @@
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>4</v>
@@ -958,10 +988,10 @@
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>20</v>
@@ -974,26 +1004,42 @@
       <c r="D51" s="1"/>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="A52" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
@@ -1004,34 +1050,80 @@
       <c r="D56" s="1"/>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
+      <c r="A57" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
+      <c r="A60" s="4"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="A61" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="4"/>
+      <c r="B62" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="4"/>
+      <c r="B63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="4"/>
+      <c r="B64" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/словарь_данных.xlsx
+++ b/словарь_данных.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба Андрей\Project_Otus_SA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkCA\Project_Otus_SA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="80">
   <si>
     <t>Сущность</t>
   </si>
@@ -159,9 +159,6 @@
     <t>Зоны хранения</t>
   </si>
   <si>
-    <t>Зона хранения</t>
-  </si>
-  <si>
     <t>Закупка запчастей</t>
   </si>
   <si>
@@ -232,6 +229,36 @@
   </si>
   <si>
     <t>1 запчасть - много строк списка запчастей заявки</t>
+  </si>
+  <si>
+    <t>ID зона хранения</t>
+  </si>
+  <si>
+    <t>ID зоны хранения</t>
+  </si>
+  <si>
+    <t>Наименование зоны</t>
+  </si>
+  <si>
+    <t>Запчасти на складах</t>
+  </si>
+  <si>
+    <t>ID запчасти на складах</t>
+  </si>
+  <si>
+    <t>1 запчасть - много записей "запчасти на складах"</t>
+  </si>
+  <si>
+    <t>ID адрес</t>
+  </si>
+  <si>
+    <t>1 склад - много записей "запчасти на складах"</t>
+  </si>
+  <si>
+    <t>1 адрес - много записей "запчасти на складах"</t>
+  </si>
+  <si>
+    <t>Адреса</t>
   </si>
 </sst>
 </file>
@@ -530,11 +557,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -782,7 +809,7 @@
     <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="3" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>44</v>
@@ -809,27 +836,27 @@
     </row>
     <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
@@ -839,10 +866,10 @@
     </row>
     <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -861,269 +888,345 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
-      <c r="B39" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="3" t="s">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="3" t="s">
+      <c r="C42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-      <c r="B45" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
-      <c r="B46" s="1"/>
+      <c r="B46" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
-      <c r="B48" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="B48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
-      <c r="B49" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-      <c r="B50" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>20</v>
+      <c r="A50" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="B51" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="A52" s="4"/>
       <c r="B52" s="3" t="s">
-        <v>57</v>
+        <v>13</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>59</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
-      <c r="B54" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="4"/>
-      <c r="B55" s="3" t="s">
-        <v>28</v>
+      <c r="A55" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="A57" s="4"/>
       <c r="B57" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
-      <c r="B59" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="4"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="A60" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="A61" s="4"/>
       <c r="B61" s="3" t="s">
-        <v>65</v>
+        <v>47</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="4"/>
-      <c r="B64" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="4"/>
+      <c r="B66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="4"/>
+      <c r="B67" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="4"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="4"/>
+      <c r="B70" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="4"/>
+      <c r="B71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="4"/>
+      <c r="B72" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/словарь_данных.xlsx
+++ b/словарь_данных.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="90">
   <si>
     <t>Сущность</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Должности</t>
   </si>
   <si>
-    <t>СТО</t>
-  </si>
-  <si>
     <t>Наименование</t>
   </si>
   <si>
@@ -96,15 +93,6 @@
     <t>ID склад</t>
   </si>
   <si>
-    <t>ID СТО</t>
-  </si>
-  <si>
-    <t>ID сто</t>
-  </si>
-  <si>
-    <t>много сотрудников - 1 СТО</t>
-  </si>
-  <si>
     <t>Количество</t>
   </si>
   <si>
@@ -132,9 +120,6 @@
     <t>много запчастей - 1 поставщик</t>
   </si>
   <si>
-    <t>1 склад - 1 СТО</t>
-  </si>
-  <si>
     <t>много заявок - 1 склад</t>
   </si>
   <si>
@@ -171,12 +156,6 @@
     <t>ID сотрудника склада</t>
   </si>
   <si>
-    <t>ID поставщика</t>
-  </si>
-  <si>
-    <t>много закупок - 1 поставщик</t>
-  </si>
-  <si>
     <t>много закупок - 1 сотрудник склада</t>
   </si>
   <si>
@@ -186,12 +165,6 @@
     <t>1 заявка - много строк списка запчастей заявки</t>
   </si>
   <si>
-    <t>ID строки списка запчастей заявки</t>
-  </si>
-  <si>
-    <t>ID строки списка запчастей закупки</t>
-  </si>
-  <si>
     <t>1 закупка - много строк списка запчастей закупки</t>
   </si>
   <si>
@@ -213,9 +186,6 @@
     <t>Список запчастей прогноза спроса</t>
   </si>
   <si>
-    <t>ID строки списка запчастей прогноза спроса</t>
-  </si>
-  <si>
     <t>1 прогноз спроса - много строк списка запчастей прогноза спроса</t>
   </si>
   <si>
@@ -243,9 +213,6 @@
     <t>Запчасти на складах</t>
   </si>
   <si>
-    <t>ID запчасти на складах</t>
-  </si>
-  <si>
     <t>1 запчасть - много записей "запчасти на складах"</t>
   </si>
   <si>
@@ -259,6 +226,69 @@
   </si>
   <si>
     <t>Адреса</t>
+  </si>
+  <si>
+    <t>Филиалы</t>
+  </si>
+  <si>
+    <t>ID филиал</t>
+  </si>
+  <si>
+    <t>много сотрудников - 1 Филиал</t>
+  </si>
+  <si>
+    <t>1 склад - 1 Филиал</t>
+  </si>
+  <si>
+    <t>Филиал</t>
+  </si>
+  <si>
+    <t>Типы документов</t>
+  </si>
+  <si>
+    <t>ID тип документа</t>
+  </si>
+  <si>
+    <t>Складские документы</t>
+  </si>
+  <si>
+    <t>ID документа</t>
+  </si>
+  <si>
+    <t>1 тип документа - много складских документов</t>
+  </si>
+  <si>
+    <t>ID ответственный сотрудник</t>
+  </si>
+  <si>
+    <t>1 сотрудник - много складких документов</t>
+  </si>
+  <si>
+    <t>Список запчастей складких документов</t>
+  </si>
+  <si>
+    <t>ID запчасть</t>
+  </si>
+  <si>
+    <t>1 документ - много строк списка запчастей складких документов</t>
+  </si>
+  <si>
+    <t>1 запчасть - много строк списка запчастей складких документов</t>
+  </si>
+  <si>
+    <t>1 склад - много строк списка запчастей складких документов</t>
+  </si>
+  <si>
+    <t>1 адрес - много строк списка запчастей складких документов</t>
+  </si>
+  <si>
+    <t>ID статус заказа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">много закупок - 1 статус заказа </t>
+  </si>
+  <si>
+    <t>Статусы заказов</t>
   </si>
 </sst>
 </file>
@@ -557,19 +587,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C71:C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.42578125" customWidth="1"/>
     <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -597,7 +627,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -613,10 +643,10 @@
     <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>6</v>
@@ -625,13 +655,13 @@
     <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -645,7 +675,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -653,7 +683,7 @@
     <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -666,10 +696,10 @@
     </row>
     <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -677,7 +707,7 @@
     <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -690,10 +720,10 @@
     </row>
     <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -701,7 +731,7 @@
     <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -709,7 +739,7 @@
     <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -717,31 +747,31 @@
     <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -754,10 +784,10 @@
     </row>
     <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -765,7 +795,7 @@
     <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -773,19 +803,19 @@
     <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -798,10 +828,10 @@
     </row>
     <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -809,19 +839,19 @@
     <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -829,7 +859,7 @@
     <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -842,10 +872,10 @@
     </row>
     <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -853,7 +883,7 @@
     <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -866,10 +896,10 @@
     </row>
     <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -877,7 +907,7 @@
     <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -890,10 +920,10 @@
     </row>
     <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -901,7 +931,7 @@
     <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -914,319 +944,437 @@
     </row>
     <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="1" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="1"/>
+      <c r="A44" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>30</v>
+    <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
-      <c r="B46" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4"/>
-      <c r="B47" s="3" t="s">
+    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="B49" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
+      <c r="B53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
-      <c r="B48" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
-      <c r="B51" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="4"/>
-      <c r="B52" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="4"/>
-      <c r="B53" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="B54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="4"/>
+      <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="4"/>
-      <c r="B56" s="1" t="s">
-        <v>48</v>
+      <c r="A56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
-      <c r="B57" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B57" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
-      <c r="B58" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>20</v>
+      <c r="B58" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="B59" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="A60" s="4"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="4"/>
+      <c r="A61" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="B61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="D61" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="3"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>60</v>
+        <v>89</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="1" t="s">
-        <v>59</v>
+      <c r="B66" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
-      <c r="B67" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="4"/>
-      <c r="B68" s="1"/>
+      <c r="A68" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="A69" s="4"/>
+      <c r="B69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
-      <c r="B70" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>67</v>
+      <c r="B70" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
-      <c r="B71" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>9</v>
+      <c r="B71" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="B72" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="4"/>
+      <c r="B74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="4"/>
+      <c r="B75" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="4"/>
+      <c r="B78" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="4"/>
+      <c r="B79" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="4"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="4"/>
+      <c r="B82" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="4"/>
+      <c r="B83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/словарь_данных.xlsx
+++ b/словарь_данных.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="93">
   <si>
     <t>Сущность</t>
   </si>
@@ -289,6 +289,15 @@
   </si>
   <si>
     <t>Статусы заказов</t>
+  </si>
+  <si>
+    <t>ID заказа</t>
+  </si>
+  <si>
+    <t>1 заказ - много строк списка запчастей закупки</t>
+  </si>
+  <si>
+    <t>Заказы</t>
   </si>
 </sst>
 </file>
@@ -587,11 +596,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C72" sqref="C71:C72"/>
+      <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1295,31 +1304,35 @@
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="4"/>
+      <c r="B76" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
     <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="4"/>
+      <c r="A78" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="B78" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -1327,54 +1340,62 @@
     <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
     </row>
     <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="B80" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="4"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B82" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D82" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="4"/>
-      <c r="B82" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="4"/>
+      <c r="B84" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/словарь_данных.xlsx
+++ b/словарь_данных.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="103">
   <si>
     <t>Сущность</t>
   </si>
@@ -298,6 +298,36 @@
   </si>
   <si>
     <t>Заказы</t>
+  </si>
+  <si>
+    <t>Резерв запчастей</t>
+  </si>
+  <si>
+    <t>ID резерва</t>
+  </si>
+  <si>
+    <t>Дата создания резерва</t>
+  </si>
+  <si>
+    <t>много резервов - 1 сотрудник склада</t>
+  </si>
+  <si>
+    <t>ID склада</t>
+  </si>
+  <si>
+    <t>1 резерв - много строк списка резерва запчастей</t>
+  </si>
+  <si>
+    <t>1 запчасть - много строк списка резерва запчастей</t>
+  </si>
+  <si>
+    <t>1 склад - много строк списка резерва запчастей</t>
+  </si>
+  <si>
+    <t>Признак отмены</t>
+  </si>
+  <si>
+    <t>Список запчастей резерва</t>
   </si>
 </sst>
 </file>
@@ -596,11 +626,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1397,6 +1427,102 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
+    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="4"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="4"/>
+      <c r="B87" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="4"/>
+      <c r="B88" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="4"/>
+      <c r="B89" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="4"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="4"/>
+      <c r="B92" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="4"/>
+      <c r="B93" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="4"/>
+      <c r="B94" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/словарь_данных.xlsx
+++ b/словарь_данных.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="104">
   <si>
     <t>Сущность</t>
   </si>
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t>Список запчастей резерва</t>
+  </si>
+  <si>
+    <t>1 заявка - много строк списка резерва запчастей</t>
   </si>
 </sst>
 </file>
@@ -626,11 +629,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H80" sqref="H80"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1518,10 +1521,22 @@
     <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="4"/>
+      <c r="B95" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/словарь_данных.xlsx
+++ b/словарь_данных.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="112">
   <si>
     <t>Сущность</t>
   </si>
@@ -132,12 +132,6 @@
     <t>ID адреса</t>
   </si>
   <si>
-    <t>Стелаж</t>
-  </si>
-  <si>
-    <t>Ячейка</t>
-  </si>
-  <si>
     <t>много адресов - 1 зона</t>
   </si>
   <si>
@@ -331,6 +325,36 @@
   </si>
   <si>
     <t>1 заявка - много строк списка резерва запчастей</t>
+  </si>
+  <si>
+    <t>ID стеллаж</t>
+  </si>
+  <si>
+    <t>Наименование стеллажа</t>
+  </si>
+  <si>
+    <t>ID ячейки</t>
+  </si>
+  <si>
+    <t>Наименование ячейки</t>
+  </si>
+  <si>
+    <t>ID ячейка</t>
+  </si>
+  <si>
+    <t>ID стелаж</t>
+  </si>
+  <si>
+    <t>много адресов - 1 стелаж</t>
+  </si>
+  <si>
+    <t>Стелажи</t>
+  </si>
+  <si>
+    <t>Ячейки</t>
+  </si>
+  <si>
+    <t>много адресов - 1 ячейка</t>
   </si>
 </sst>
 </file>
@@ -629,11 +653,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I79" sqref="I79"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -697,13 +721,13 @@
     <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -738,10 +762,10 @@
     </row>
     <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -845,13 +869,13 @@
     <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -881,30 +905,38 @@
     <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
@@ -914,10 +946,10 @@
     </row>
     <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -925,334 +957,326 @@
     <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
-      <c r="B41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="B41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="1"/>
+      <c r="A43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>75</v>
+      <c r="A44" s="4"/>
+      <c r="B44" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
-      <c r="B45" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="A46" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="A47" s="4"/>
       <c r="B47" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
-      <c r="B49" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-      <c r="B50" s="1"/>
+      <c r="A50" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
     <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="A51" s="4"/>
       <c r="B51" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
     </row>
     <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
-      <c r="B52" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
     </row>
     <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="4"/>
+      <c r="A53" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="B53" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
     </row>
     <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="B55" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="4"/>
+      <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="4"/>
-      <c r="B57" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
-      <c r="B58" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D59" s="3" t="s">
+      <c r="C59" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B61" s="3" t="s">
+      <c r="B60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="4"/>
+      <c r="B61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="4"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="4"/>
-      <c r="B62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="4"/>
-      <c r="B63" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
-      <c r="B64" s="3"/>
+      <c r="B64" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="A65" s="4"/>
       <c r="B65" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
@@ -1262,186 +1286,182 @@
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
-      <c r="B69" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="B69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
-      <c r="B70" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B70" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="3"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="4"/>
-      <c r="B72" s="1"/>
+      <c r="B72" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="A73" s="4"/>
       <c r="B73" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
-      <c r="B74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="4"/>
-      <c r="B75" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="A75" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
     </row>
     <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
-      <c r="B76" s="3" t="s">
-        <v>24</v>
+      <c r="B76" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
     <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+      <c r="A77" s="4"/>
+      <c r="B77" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="A78" s="4"/>
       <c r="B78" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
-      <c r="B79" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
     <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="4"/>
-      <c r="B80" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>4</v>
+      <c r="A80" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
+      <c r="B81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="A82" s="4"/>
       <c r="B82" s="3" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
     </row>
     <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="4"/>
-      <c r="B84" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
     <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="4"/>
-      <c r="B85" s="3"/>
+      <c r="A85" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
     <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="A86" s="4"/>
       <c r="B86" s="1" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -1449,94 +1469,162 @@
     <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="4"/>
-      <c r="B89" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
+      <c r="B89" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
+      <c r="B90" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
-        <v>102</v>
-      </c>
+      <c r="A91" s="4"/>
       <c r="B91" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>93</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
     </row>
     <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
-      <c r="B92" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="B92" s="3"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
     </row>
     <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="4"/>
-      <c r="B93" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A93" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
     </row>
     <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
-      <c r="B94" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="B94" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
     </row>
     <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="4"/>
+      <c r="B96" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="4"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="4"/>
+      <c r="B99" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="4"/>
+      <c r="B100" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="4"/>
+      <c r="B101" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="4"/>
+      <c r="B102" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/словарь_данных.xlsx
+++ b/словарь_данных.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkCA\Project_Otus_SA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба Андрей\Project_Otus_SA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="119">
   <si>
     <t>Сущность</t>
   </si>
@@ -355,6 +355,27 @@
   </si>
   <si>
     <t>много адресов - 1 ячейка</t>
+  </si>
+  <si>
+    <t>Перемещение запчастей</t>
+  </si>
+  <si>
+    <t>ID перемещения</t>
+  </si>
+  <si>
+    <t>Дата документа</t>
+  </si>
+  <si>
+    <t>ID склад источник</t>
+  </si>
+  <si>
+    <t>ID склад назначение</t>
+  </si>
+  <si>
+    <t>1 склад - много документов перемещения</t>
+  </si>
+  <si>
+    <t>Список запчастей перемещения</t>
   </si>
 </sst>
 </file>
@@ -653,11 +674,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36:C37"/>
+      <selection pane="bottomLeft" activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1626,6 +1647,106 @@
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
+    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="4"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="4"/>
+      <c r="B105" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="4"/>
+      <c r="B106" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="4"/>
+      <c r="B107" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="4"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="4"/>
+      <c r="B110" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="4"/>
+      <c r="B111" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="4"/>
+      <c r="B112" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/словарь_данных.xlsx
+++ b/словарь_данных.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба Андрей\Project_Otus_SA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkCA\Project_Otus_SA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="120">
   <si>
     <t>Сущность</t>
   </si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t>Список запчастей перемещения</t>
+  </si>
+  <si>
+    <t>много перемещений - 1 сотрудник склада</t>
   </si>
 </sst>
 </file>
@@ -674,11 +677,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B114" sqref="B114"/>
+      <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1673,20 +1676,20 @@
     </row>
     <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
-      <c r="B106" s="3" t="s">
-        <v>115</v>
+      <c r="B106" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
-      <c r="B107" s="1" t="s">
-        <v>116</v>
+      <c r="B107" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>117</v>
@@ -1697,55 +1700,67 @@
     </row>
     <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
+      <c r="B108" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="4"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B110" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D110" s="3" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="4"/>
-      <c r="B110" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="3" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="4"/>
+      <c r="B113" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/словарь_данных.xlsx
+++ b/словарь_данных.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="132">
   <si>
     <t>Сущность</t>
   </si>
@@ -379,6 +379,42 @@
   </si>
   <si>
     <t>много перемещений - 1 сотрудник склада</t>
+  </si>
+  <si>
+    <t>Пользователи</t>
+  </si>
+  <si>
+    <t>ID пользователя</t>
+  </si>
+  <si>
+    <t>Логин</t>
+  </si>
+  <si>
+    <t>Пароль</t>
+  </si>
+  <si>
+    <t>ID роль пользователя</t>
+  </si>
+  <si>
+    <t>Активность</t>
+  </si>
+  <si>
+    <t>1 роль - много пользователей</t>
+  </si>
+  <si>
+    <t>Роли</t>
+  </si>
+  <si>
+    <t>Роли пользователей</t>
+  </si>
+  <si>
+    <t>ID роли</t>
+  </si>
+  <si>
+    <t>ID сотрудник</t>
+  </si>
+  <si>
+    <t>1 пользователь - 1 сотрудник</t>
   </si>
 </sst>
 </file>
@@ -677,11 +713,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1762,6 +1798,108 @@
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
+    <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="4"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="4"/>
+      <c r="B116" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="4"/>
+      <c r="B117" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="4"/>
+      <c r="B118" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="4"/>
+      <c r="B119" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="4"/>
+      <c r="B120" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="4"/>
+      <c r="B121" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="4"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="4"/>
+      <c r="B124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="4"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/словарь_данных.xlsx
+++ b/словарь_данных.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="132">
   <si>
     <t>Сущность</t>
   </si>
@@ -285,15 +285,6 @@
     <t>Статусы заказов</t>
   </si>
   <si>
-    <t>ID заказа</t>
-  </si>
-  <si>
-    <t>1 заказ - много строк списка запчастей закупки</t>
-  </si>
-  <si>
-    <t>Заказы</t>
-  </si>
-  <si>
     <t>Резерв запчастей</t>
   </si>
   <si>
@@ -415,6 +406,15 @@
   </si>
   <si>
     <t>1 пользователь - 1 сотрудник</t>
+  </si>
+  <si>
+    <t>ID заявка</t>
+  </si>
+  <si>
+    <t>1 заявка - много строк списка запчастей закупки</t>
+  </si>
+  <si>
+    <t>1 заявка - много складских документов</t>
   </si>
 </sst>
 </file>
@@ -713,11 +713,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F110" sqref="F110"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -977,25 +977,25 @@
     <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1030,10 +1030,10 @@
     </row>
     <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1041,7 +1041,7 @@
     <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1054,10 +1054,10 @@
     </row>
     <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1065,7 +1065,7 @@
     <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1228,88 +1228,92 @@
     </row>
     <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="B56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="4"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="4"/>
-      <c r="B58" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
-      <c r="B62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>26</v>
-      </c>
+    <row r="63" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="4"/>
+      <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="4"/>
+      <c r="A64" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="B64" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1317,111 +1321,111 @@
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>4</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="B67" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="4"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B69" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="4"/>
-      <c r="B69" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
-      <c r="B71" s="3"/>
+      <c r="B71" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="A72" s="4"/>
+      <c r="B72" s="3"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="4"/>
+      <c r="A73" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="B73" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
-      <c r="B74" s="1"/>
+      <c r="B74" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="A75" s="4"/>
+      <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
     <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="4"/>
+      <c r="A76" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="B76" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1429,99 +1433,99 @@
     <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="1" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+      <c r="B79" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="4"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B81" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C81" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="4"/>
-      <c r="B81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="3" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="4"/>
+      <c r="B84" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
     <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
     <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="4"/>
+      <c r="A86" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="B86" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -1529,75 +1533,75 @@
     <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
     </row>
     <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
+      <c r="B88" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="4"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B90" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D90" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="4"/>
-      <c r="B90" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
-      <c r="B92" s="3"/>
+      <c r="B92" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
     <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="A93" s="4"/>
+      <c r="B93" s="3"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
     <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="4"/>
+      <c r="A94" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="B94" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -1605,142 +1609,138 @@
     <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
     </row>
     <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
-      <c r="B97" s="1"/>
+      <c r="B97" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
     <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="A98" s="4"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
     </row>
     <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="4"/>
+      <c r="A99" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="B99" s="3" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="3" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="3" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" s="3"/>
+      <c r="B103" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
     <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="A104" s="4"/>
+      <c r="B104" s="3"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
     <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="4"/>
+      <c r="A105" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="B105" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
     <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
-      <c r="B106" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B106" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
     </row>
     <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
-      <c r="B107" s="3" t="s">
-        <v>115</v>
+      <c r="B107" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
-      <c r="B108" s="1" t="s">
-        <v>116</v>
+      <c r="B108" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>22</v>
@@ -1748,76 +1748,80 @@
     </row>
     <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
+      <c r="B109" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C110" s="3" t="s">
+      <c r="A110" s="4"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D111" s="3" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="4"/>
-      <c r="B111" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="3" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
-      <c r="B114" s="3"/>
+      <c r="B114" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
     <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>121</v>
-      </c>
+      <c r="A115" s="4"/>
+      <c r="B115" s="3"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
     </row>
     <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="4"/>
+      <c r="A116" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="B116" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -1825,7 +1829,7 @@
     <row r="117" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -1833,7 +1837,7 @@
     <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="3" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -1841,64 +1845,72 @@
     <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
     </row>
     <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
-      <c r="B121" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
+      <c r="B121" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="122" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
-      <c r="B122" s="1"/>
+      <c r="B122" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
     <row r="123" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="A123" s="4"/>
+      <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
     <row r="124" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="4"/>
+      <c r="A124" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="B124" s="1" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
     <row r="125" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
-      <c r="B125" s="3"/>
+      <c r="B125" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
+    </row>
+    <row r="126" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="4"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
